--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3758.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3758.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247857507748153</v>
+        <v>0.5856198072433472</v>
       </c>
       <c r="B1">
-        <v>2.518987030488942</v>
+        <v>1.101048588752747</v>
       </c>
       <c r="C1">
-        <v>4.004676546202306</v>
+        <v>5.315079212188721</v>
       </c>
       <c r="D1">
-        <v>3.765348547528427</v>
+        <v>1.85684597492218</v>
       </c>
       <c r="E1">
-        <v>1.155263322219778</v>
+        <v>1.040079236030579</v>
       </c>
     </row>
   </sheetData>
